--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_24_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_24_8.xlsx
@@ -518,716 +518,716 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_4</t>
+          <t>model_24_8_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9465854232726107</v>
+        <v>0.9801699489068844</v>
       </c>
       <c r="C2" t="n">
-        <v>0.764624701619297</v>
+        <v>0.8124915869817891</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9899717159525436</v>
+        <v>0.9662536272205824</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5348911048646086</v>
+        <v>0.9878671714788922</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9370463452398761</v>
+        <v>0.9741986239017884</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3571835205275626</v>
+        <v>0.1326036429686535</v>
       </c>
       <c r="H2" t="n">
-        <v>1.573955704075354</v>
+        <v>1.253869621249629</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2333167463962262</v>
+        <v>0.2934229283091441</v>
       </c>
       <c r="J2" t="n">
-        <v>1.487196302467118</v>
+        <v>0.04503940659696191</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8602563498756576</v>
+        <v>0.169231191779568</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9004517080111125</v>
+        <v>0.8023129977334078</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5976483251273801</v>
+        <v>0.3641478312013591</v>
       </c>
       <c r="N2" t="n">
-        <v>1.075408814203373</v>
+        <v>1.027995366249104</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6230914516306388</v>
+        <v>0.3796503582655297</v>
       </c>
       <c r="P2" t="n">
-        <v>84.0590111323705</v>
+        <v>86.04078145647867</v>
       </c>
       <c r="Q2" t="n">
-        <v>134.0329199519667</v>
+        <v>136.0146902760749</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_5</t>
+          <t>model_24_8_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9472634238598361</v>
+        <v>0.9828554461036563</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7645381944315062</v>
+        <v>0.8123766368983767</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9887703811217987</v>
+        <v>0.9710992168687713</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5219170309590548</v>
+        <v>0.9815471301990346</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9345056824750442</v>
+        <v>0.9756219315121334</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3526497274788813</v>
+        <v>0.1146457108482622</v>
       </c>
       <c r="H3" t="n">
-        <v>1.57453417803844</v>
+        <v>1.254638292986704</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2612668456071623</v>
+        <v>0.2512907823374959</v>
       </c>
       <c r="J3" t="n">
-        <v>1.52868119975049</v>
+        <v>0.06850062245589181</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8949742909494097</v>
+        <v>0.1598957190415727</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8929768538165679</v>
+        <v>0.7269525458568463</v>
       </c>
       <c r="M3" t="n">
-        <v>0.593843184248907</v>
+        <v>0.3385937253527628</v>
       </c>
       <c r="N3" t="n">
-        <v>1.074451636903761</v>
+        <v>1.024204076088956</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6191243180272417</v>
+        <v>0.3530083612266672</v>
       </c>
       <c r="P3" t="n">
-        <v>84.08455997621792</v>
+        <v>86.33181736241742</v>
       </c>
       <c r="Q3" t="n">
-        <v>134.0584687958142</v>
+        <v>136.3057261820136</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_3</t>
+          <t>model_24_8_0</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9456297846340674</v>
+        <v>0.976546770933495</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7644227531319215</v>
+        <v>0.8121829396968976</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9912951354439067</v>
+        <v>0.9599068862222417</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5505875763082483</v>
+        <v>0.9931208172409676</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9400094052861913</v>
+        <v>0.9714785400323279</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3635738805038129</v>
+        <v>0.1568318507599095</v>
       </c>
       <c r="H4" t="n">
-        <v>1.575306134540321</v>
+        <v>1.255933547064888</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2025262414223964</v>
+        <v>0.3486075059562151</v>
       </c>
       <c r="J4" t="n">
-        <v>1.437006476951167</v>
+        <v>0.02553685719697148</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8197663857962401</v>
+        <v>0.1870722182898196</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9092172992467593</v>
+        <v>0.8831518643740166</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6029708786532008</v>
+        <v>0.396020013080033</v>
       </c>
       <c r="N4" t="n">
-        <v>1.076757951104846</v>
+        <v>1.033110441035066</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6286405972792584</v>
+        <v>0.4128794049112909</v>
       </c>
       <c r="P4" t="n">
-        <v>84.02354551011445</v>
+        <v>85.70516212369509</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.9974543297107</v>
+        <v>135.6790709432913</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_6</t>
+          <t>model_24_8_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9477121160328624</v>
+        <v>0.9847756866152574</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7642464670572773</v>
+        <v>0.8119412416891363</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9876799158722926</v>
+        <v>0.9746916774735355</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5109900311775885</v>
+        <v>0.9743690929732722</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9322989655233634</v>
+        <v>0.9759718316723385</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3496493208518163</v>
+        <v>0.1018050537052909</v>
       </c>
       <c r="H5" t="n">
-        <v>1.57648496033319</v>
+        <v>1.257549782755705</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2866374676267337</v>
+        <v>0.2200545271886746</v>
       </c>
       <c r="J5" t="n">
-        <v>1.563620530823325</v>
+        <v>0.09514688524752334</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9251288908260167</v>
+        <v>0.1576007243525303</v>
       </c>
       <c r="L5" t="n">
-        <v>0.886768222432779</v>
+        <v>0.6577095617801102</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5913115260603469</v>
+        <v>0.3190690422232951</v>
       </c>
       <c r="N5" t="n">
-        <v>1.073818189130077</v>
+        <v>1.021493148307872</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6164848819083396</v>
+        <v>0.3326524719147122</v>
       </c>
       <c r="P5" t="n">
-        <v>84.10164913439979</v>
+        <v>86.56939106525493</v>
       </c>
       <c r="Q5" t="n">
-        <v>134.075557953996</v>
+        <v>136.5432998848512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_2</t>
+          <t>model_24_8_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9443221127387312</v>
+        <v>0.9860797237252484</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7638224127386385</v>
+        <v>0.8112700592377042</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9927452978393254</v>
+        <v>0.9772644495175974</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5697165009635379</v>
+        <v>0.9665382971164744</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9434819667345645</v>
+        <v>0.975461119782089</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3723182884892016</v>
+        <v>0.09308495154624218</v>
       </c>
       <c r="H6" t="n">
-        <v>1.579320613514518</v>
+        <v>1.262037982898943</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1687869526024842</v>
+        <v>0.1976844101993605</v>
       </c>
       <c r="J6" t="n">
-        <v>1.375841303988312</v>
+        <v>0.1242163143553797</v>
       </c>
       <c r="K6" t="n">
-        <v>0.772314128295398</v>
+        <v>0.1609504829667193</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9191630842773254</v>
+        <v>0.5939065666425247</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6101788987577345</v>
+        <v>0.3050982653936961</v>
       </c>
       <c r="N6" t="n">
-        <v>1.078604076133556</v>
+        <v>1.019652154740826</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6361554777223007</v>
+        <v>0.3180869301919821</v>
       </c>
       <c r="P6" t="n">
-        <v>83.97601235263978</v>
+        <v>86.74848549058161</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.949921172236</v>
+        <v>136.7223943101778</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_7</t>
+          <t>model_24_8_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9479689114737661</v>
+        <v>0.9868943909029819</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7638125947237013</v>
+        <v>0.8104322146681863</v>
       </c>
       <c r="D7" t="n">
-        <v>0.986688164646413</v>
+        <v>0.9790231936313645</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5015670830511314</v>
+        <v>0.958253254620654</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9303522186060945</v>
+        <v>0.9742823656678329</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3479321285560593</v>
+        <v>0.08763726837754109</v>
       </c>
       <c r="H7" t="n">
-        <v>1.579386266625611</v>
+        <v>1.267640653393229</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3097114220701559</v>
+        <v>0.1823922230543541</v>
       </c>
       <c r="J7" t="n">
-        <v>1.59375062241817</v>
+        <v>0.1549719948624584</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9517310222441628</v>
+        <v>0.1686819296465911</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8816865903275766</v>
+        <v>0.5353480725472197</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5898577189086019</v>
+        <v>0.2960359241334421</v>
       </c>
       <c r="N7" t="n">
-        <v>1.073455654389977</v>
+        <v>1.018502036372261</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6149691831763493</v>
+        <v>0.3086387863026466</v>
       </c>
       <c r="P7" t="n">
-        <v>84.11149570222787</v>
+        <v>86.86909786682627</v>
       </c>
       <c r="Q7" t="n">
-        <v>134.0854045218241</v>
+        <v>136.8430066864225</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_8</t>
+          <t>model_24_8_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9480664311740636</v>
+        <v>0.9873260953736483</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7632842534034189</v>
+        <v>0.8094836529814982</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9857838960498342</v>
+        <v>0.9801423794431798</v>
       </c>
       <c r="E8" t="n">
-        <v>0.493248318287692</v>
+        <v>0.9497002921219122</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9286091402684588</v>
+        <v>0.9726038060134706</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3472800138711326</v>
+        <v>0.08475045859437813</v>
       </c>
       <c r="H8" t="n">
-        <v>1.582919287467127</v>
+        <v>1.273983689759837</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3307500170903626</v>
+        <v>0.1726609615534085</v>
       </c>
       <c r="J8" t="n">
-        <v>1.620350062520642</v>
+        <v>0.186722246250189</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9755500398055021</v>
+        <v>0.1796916002044536</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8775840360796364</v>
+        <v>0.4817528974143194</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5893046867887041</v>
+        <v>0.2911193202011473</v>
       </c>
       <c r="N8" t="n">
-        <v>1.073317979518969</v>
+        <v>1.017892571237202</v>
       </c>
       <c r="O8" t="n">
-        <v>0.614392607334173</v>
+        <v>0.3035128723621808</v>
       </c>
       <c r="P8" t="n">
-        <v>84.11524773609717</v>
+        <v>86.93608824318622</v>
       </c>
       <c r="Q8" t="n">
-        <v>134.0891565556934</v>
+        <v>136.9099970627825</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_9</t>
+          <t>model_24_8_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9480346603474126</v>
+        <v>0.9874629363108092</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7626975357629805</v>
+        <v>0.8084689038187337</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9849578365001694</v>
+        <v>0.9807669449543628</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4857603179079359</v>
+        <v>0.9410440394821989</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9270298360175663</v>
+        <v>0.9705681958335669</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3474924655352399</v>
+        <v>0.08383540261748947</v>
       </c>
       <c r="H9" t="n">
-        <v>1.586842671030326</v>
+        <v>1.280769322083733</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3499690106435235</v>
+        <v>0.16723039743293</v>
       </c>
       <c r="J9" t="n">
-        <v>1.644293114554518</v>
+        <v>0.2188559306229469</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9971310983698169</v>
+        <v>0.1930431646881636</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8743045814387728</v>
+        <v>0.4396893539448732</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5894849154433385</v>
+        <v>0.2895434382221249</v>
       </c>
       <c r="N9" t="n">
-        <v>1.073362832450712</v>
+        <v>1.017699384031799</v>
       </c>
       <c r="O9" t="n">
-        <v>0.61458050869576</v>
+        <v>0.301869901824786</v>
       </c>
       <c r="P9" t="n">
-        <v>84.11402459225064</v>
+        <v>86.95779979021013</v>
       </c>
       <c r="Q9" t="n">
-        <v>134.0879334118469</v>
+        <v>136.9317086098064</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_1</t>
+          <t>model_24_8_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9425314561530549</v>
+        <v>0.9873770919960027</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7626791396110333</v>
+        <v>0.807422834566624</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9943065170817031</v>
+        <v>0.9810152906835191</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5928014707931774</v>
+        <v>0.9324263669067022</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9475119164071345</v>
+        <v>0.9682941545072892</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3842924173228345</v>
+        <v>0.08440944394587691</v>
       </c>
       <c r="H10" t="n">
-        <v>1.586965686183103</v>
+        <v>1.287764391989296</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1324638296914254</v>
+        <v>0.1650710444393972</v>
       </c>
       <c r="J10" t="n">
-        <v>1.302026586333405</v>
+        <v>0.2508463983339209</v>
       </c>
       <c r="K10" t="n">
-        <v>0.717245208012415</v>
+        <v>0.2079585987462972</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9298533837590068</v>
+        <v>0.4378390599427155</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6199132337051972</v>
+        <v>0.2905330341731847</v>
       </c>
       <c r="N10" t="n">
-        <v>1.08113206190157</v>
+        <v>1.017820576005643</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6463042234613282</v>
+        <v>0.3029016269242285</v>
       </c>
       <c r="P10" t="n">
-        <v>83.91270302549233</v>
+        <v>86.94415197709337</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.8866118450886</v>
+        <v>136.9180607966896</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_10</t>
+          <t>model_24_8_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9479007234003871</v>
+        <v>0.9871268408197754</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7620794193744596</v>
+        <v>0.8063721522398706</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9842021959547993</v>
+        <v>0.9809826307540527</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4789235099020698</v>
+        <v>0.9239630656261727</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9255866771403339</v>
+        <v>0.9658775026075636</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3483881025167218</v>
+        <v>0.08608287471360958</v>
       </c>
       <c r="H11" t="n">
-        <v>1.590976018166529</v>
+        <v>1.294790309546244</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3675496448434035</v>
+        <v>0.165355020800503</v>
       </c>
       <c r="J11" t="n">
-        <v>1.666153964117591</v>
+        <v>0.2822638099344564</v>
       </c>
       <c r="K11" t="n">
-        <v>1.016851741956739</v>
+        <v>0.2238094153674796</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8717065227069543</v>
+        <v>0.4372779148245711</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5902441041778578</v>
+        <v>0.2933988321612913</v>
       </c>
       <c r="N11" t="n">
-        <v>1.073551919905336</v>
+        <v>1.018173871783846</v>
       </c>
       <c r="O11" t="n">
-        <v>0.615372017666445</v>
+        <v>0.3058894278657084</v>
       </c>
       <c r="P11" t="n">
-        <v>84.10887636701118</v>
+        <v>86.9048895745795</v>
       </c>
       <c r="Q11" t="n">
-        <v>134.0827851866074</v>
+        <v>136.8787983941757</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_11</t>
+          <t>model_24_8_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9476887497480344</v>
+        <v>0.9867589531076574</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7614500382155751</v>
+        <v>0.8053369552080626</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9835103617007664</v>
+        <v>0.9807444709142421</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4726228010652566</v>
+        <v>0.9157462244136987</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9242605606860473</v>
+        <v>0.9633944023227913</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3498055713060533</v>
+        <v>0.08854294153850979</v>
       </c>
       <c r="H12" t="n">
-        <v>1.595184692874023</v>
+        <v>1.301712676864588</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3836457702056819</v>
+        <v>0.1674258080243509</v>
       </c>
       <c r="J12" t="n">
-        <v>1.686300624357883</v>
+        <v>0.3127663140840409</v>
       </c>
       <c r="K12" t="n">
-        <v>1.034973010766652</v>
+        <v>0.2400960668584952</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8696647653693216</v>
+        <v>0.4376923204808613</v>
       </c>
       <c r="M12" t="n">
-        <v>0.591443633245006</v>
+        <v>0.2975616600614229</v>
       </c>
       <c r="N12" t="n">
-        <v>1.073851176826304</v>
+        <v>1.018693242671542</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6166226131693493</v>
+        <v>0.3102294759677903</v>
       </c>
       <c r="P12" t="n">
-        <v>84.10075557881193</v>
+        <v>86.84853525904529</v>
       </c>
       <c r="Q12" t="n">
-        <v>134.0746643984082</v>
+        <v>136.8224440786415</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_12</t>
+          <t>model_24_8_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9474200046218432</v>
+        <v>0.9863105359937331</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7608242336163676</v>
+        <v>0.8043318520731826</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9828770135776599</v>
+        <v>0.9803607686989652</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4667877989233391</v>
+        <v>0.9078460021645568</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9230387055616978</v>
+        <v>0.960904435275624</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3516026712023516</v>
+        <v>0.09154150884409296</v>
       </c>
       <c r="H13" t="n">
-        <v>1.599369451110489</v>
+        <v>1.308433806155605</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3983811648873744</v>
+        <v>0.1707620785130699</v>
       </c>
       <c r="J13" t="n">
-        <v>1.704958176817337</v>
+        <v>0.3420934673909912</v>
       </c>
       <c r="K13" t="n">
-        <v>1.051669557350879</v>
+        <v>0.256427757434999</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8680691035159209</v>
+        <v>0.4388276954865458</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5929609356461449</v>
+        <v>0.3025582734682576</v>
       </c>
       <c r="N13" t="n">
-        <v>1.074230581710339</v>
+        <v>1.019326302126494</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6182045102749536</v>
+        <v>0.3154388055517696</v>
       </c>
       <c r="P13" t="n">
-        <v>84.09050703184732</v>
+        <v>86.78192552199748</v>
       </c>
       <c r="Q13" t="n">
-        <v>134.0644158514436</v>
+        <v>136.7558343415937</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_0</t>
+          <t>model_24_8_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9400228568178163</v>
+        <v>0.9858107565295646</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7608027720362592</v>
+        <v>0.8033672154946963</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9959199312844834</v>
+        <v>0.9798783251322647</v>
       </c>
       <c r="E14" t="n">
-        <v>0.619831515224649</v>
+        <v>0.9003125488829287</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9520478555043498</v>
+        <v>0.9584528250518407</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4010674326286134</v>
+        <v>0.09488353642225979</v>
       </c>
       <c r="H14" t="n">
-        <v>1.599512964795495</v>
+        <v>1.314884335397686</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09492634565121011</v>
+        <v>0.174956899835363</v>
       </c>
       <c r="J14" t="n">
-        <v>1.215597402642337</v>
+        <v>0.3700591033381385</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6552619851813188</v>
+        <v>0.2725078656575433</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9404980710220218</v>
+        <v>0.4404691198111397</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6332988493820381</v>
+        <v>0.3080317133385129</v>
       </c>
       <c r="N14" t="n">
-        <v>1.084673613904259</v>
+        <v>1.020031873134732</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6602596925095766</v>
+        <v>0.3211452610888842</v>
       </c>
       <c r="P14" t="n">
-        <v>83.82725140928892</v>
+        <v>86.71021014369741</v>
       </c>
       <c r="Q14" t="n">
-        <v>133.8011602288852</v>
+        <v>136.6841189632936</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9471121063767597</v>
+        <v>0.985282202606261</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7602126924786082</v>
+        <v>0.8024500016102152</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9822972484478328</v>
+        <v>0.979333048744831</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4613728720314021</v>
+        <v>0.8931801549517135</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9219116104162368</v>
+        <v>0.9560730222182823</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3536615881849661</v>
+        <v>0.09841797894115832</v>
       </c>
       <c r="H15" t="n">
-        <v>1.603458829514574</v>
+        <v>1.321017748866592</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4118699046483442</v>
+        <v>0.1796980492141259</v>
       </c>
       <c r="J15" t="n">
-        <v>1.722272529082035</v>
+        <v>0.3965359293905992</v>
       </c>
       <c r="K15" t="n">
-        <v>1.06707121686519</v>
+        <v>0.2881169893023625</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8668272114683225</v>
+        <v>0.4424638780144944</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5946945335085619</v>
+        <v>0.3137163989037843</v>
       </c>
       <c r="N15" t="n">
-        <v>1.074665261585751</v>
+        <v>1.020778066908808</v>
       </c>
       <c r="O15" t="n">
-        <v>0.620011910987416</v>
+        <v>0.3270719554875905</v>
       </c>
       <c r="P15" t="n">
-        <v>84.07882957730814</v>
+        <v>86.63706355759447</v>
       </c>
       <c r="Q15" t="n">
-        <v>134.0527383969044</v>
+        <v>136.6109723771907</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9467796890352959</v>
+        <v>0.9847420954485326</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7596230466591369</v>
+        <v>0.8015844669717425</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9817669157640072</v>
+        <v>0.97875255082059</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4563474200759743</v>
+        <v>0.8864678858394428</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9208721477906295</v>
+        <v>0.9537887612725235</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3558844644779758</v>
+        <v>0.1020296779918523</v>
       </c>
       <c r="H16" t="n">
-        <v>1.607401793824448</v>
+        <v>1.326805582979481</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4242085555792747</v>
+        <v>0.1847454479944792</v>
       </c>
       <c r="J16" t="n">
-        <v>1.738341526352368</v>
+        <v>0.4214531708409207</v>
       </c>
       <c r="K16" t="n">
-        <v>1.081275385432437</v>
+        <v>0.3030994538311855</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8658754424991283</v>
+        <v>0.4446745655428153</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5965605287629879</v>
+        <v>0.3194208477727343</v>
       </c>
       <c r="N16" t="n">
-        <v>1.075134556656053</v>
+        <v>1.021540571131483</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6219573455229657</v>
+        <v>0.3330192545547289</v>
       </c>
       <c r="P16" t="n">
-        <v>84.06629827757433</v>
+        <v>86.56498309462857</v>
       </c>
       <c r="Q16" t="n">
-        <v>134.0402070971706</v>
+        <v>136.5388919142248</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9464345182033821</v>
+        <v>0.9842034638447608</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7590603350786953</v>
+        <v>0.8007728362159234</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9812822286146106</v>
+        <v>0.9781576673649182</v>
       </c>
       <c r="E17" t="n">
-        <v>0.451687857997549</v>
+        <v>0.880184431750461</v>
       </c>
       <c r="F17" t="n">
-        <v>0.919914371188168</v>
+        <v>0.9516163573808317</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3581926234203487</v>
+        <v>0.1056315100064458</v>
       </c>
       <c r="H17" t="n">
-        <v>1.611164648753909</v>
+        <v>1.332232961580858</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4354852234700269</v>
+        <v>0.1899179282105556</v>
       </c>
       <c r="J17" t="n">
-        <v>1.753240582394143</v>
+        <v>0.4447785679694342</v>
       </c>
       <c r="K17" t="n">
-        <v>1.094363321425499</v>
+        <v>0.3173482480899948</v>
       </c>
       <c r="L17" t="n">
-        <v>0.865147846323107</v>
+        <v>0.4470071069456176</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5984919576906182</v>
+        <v>0.3250100152402165</v>
       </c>
       <c r="N17" t="n">
-        <v>1.075621856654049</v>
+        <v>1.022300992219161</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6239709993786542</v>
+        <v>0.3388463644524735</v>
       </c>
       <c r="P17" t="n">
-        <v>84.05336876606788</v>
+        <v>86.49559712401386</v>
       </c>
       <c r="Q17" t="n">
-        <v>134.0272775856641</v>
+        <v>136.4695059436101</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9460857029176118</v>
+        <v>0.983675835431304</v>
       </c>
       <c r="C18" t="n">
-        <v>0.758527815540384</v>
+        <v>0.8000157507370698</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9808396504289881</v>
+        <v>0.9775637536478554</v>
       </c>
       <c r="E18" t="n">
-        <v>0.447374396263678</v>
+        <v>0.8743292194114989</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9190329740801961</v>
+        <v>0.9495657601319979</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3605251528424407</v>
+        <v>0.1091597636367363</v>
       </c>
       <c r="H18" t="n">
-        <v>1.614725609358625</v>
+        <v>1.33729559566401</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4457821897113794</v>
+        <v>0.1950819766006633</v>
       </c>
       <c r="J18" t="n">
-        <v>1.76703297468881</v>
+        <v>0.4665142488774163</v>
       </c>
       <c r="K18" t="n">
-        <v>1.106407538108136</v>
+        <v>0.3307981127390398</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8645952214750789</v>
+        <v>0.4493817288589189</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6004374678869072</v>
+        <v>0.3303933468409077</v>
       </c>
       <c r="N18" t="n">
-        <v>1.076114301763371</v>
+        <v>1.0230458793911</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6259993339717604</v>
+        <v>0.3444588756244387</v>
       </c>
       <c r="P18" t="n">
-        <v>84.04038710518002</v>
+        <v>86.42988549687249</v>
       </c>
       <c r="Q18" t="n">
-        <v>134.0142959247763</v>
+        <v>136.4037943164687</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9457404499683576</v>
+        <v>0.9831660196702888</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7580272536002071</v>
+        <v>0.7993127145134209</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9804359493632518</v>
+        <v>0.9769821176771255</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4433911701912567</v>
+        <v>0.8688943946390052</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9182232386276736</v>
+        <v>0.9476422641686418</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3628338609038476</v>
+        <v>0.1125689039781304</v>
       </c>
       <c r="H19" t="n">
-        <v>1.618072869357463</v>
+        <v>1.341996802128735</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4551746459609787</v>
+        <v>0.2001392706351082</v>
       </c>
       <c r="J19" t="n">
-        <v>1.779769430922508</v>
+        <v>0.486689369813621</v>
       </c>
       <c r="K19" t="n">
-        <v>1.117472504350463</v>
+        <v>0.3434143202243646</v>
       </c>
       <c r="L19" t="n">
-        <v>0.86418319720896</v>
+        <v>0.4517496009548569</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6023569215206609</v>
+        <v>0.3355128968879295</v>
       </c>
       <c r="N19" t="n">
-        <v>1.07660171769173</v>
+        <v>1.023765619289004</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6280005027205198</v>
+        <v>0.3497963755158918</v>
       </c>
       <c r="P19" t="n">
-        <v>84.02762046589361</v>
+        <v>86.36837953004253</v>
       </c>
       <c r="Q19" t="n">
-        <v>134.0015292854899</v>
+        <v>136.3422883496387</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9454038500318079</v>
+        <v>0.9826787885021065</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7575594507936766</v>
+        <v>0.7986623252458529</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9800680185422466</v>
+        <v>0.9764204909744048</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4397192648810977</v>
+        <v>0.8638679517807323</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9174804495440116</v>
+        <v>0.9458475967261171</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3650847062294557</v>
+        <v>0.1158270210432587</v>
       </c>
       <c r="H20" t="n">
-        <v>1.621201068878766</v>
+        <v>1.34634595815573</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4637348763702487</v>
+        <v>0.2050225851414137</v>
       </c>
       <c r="J20" t="n">
-        <v>1.791510431916884</v>
+        <v>0.5053484980817159</v>
       </c>
       <c r="K20" t="n">
-        <v>1.127622654143567</v>
+        <v>0.3551855416115648</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8638771462536268</v>
+        <v>0.4540637409843326</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6042223979872442</v>
+        <v>0.3403336907261147</v>
       </c>
       <c r="N20" t="n">
-        <v>1.077076917602154</v>
+        <v>1.02445347505585</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6299453963823543</v>
+        <v>0.3548224005281875</v>
       </c>
       <c r="P20" t="n">
-        <v>84.01525176092527</v>
+        <v>86.31131479744171</v>
       </c>
       <c r="Q20" t="n">
-        <v>133.9891605805215</v>
+        <v>136.285223617038</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9450799101746352</v>
+        <v>0.982217187561118</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7571243304447973</v>
+        <v>0.7980626187833932</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9797331616634328</v>
+        <v>0.9758843296755216</v>
       </c>
       <c r="E21" t="n">
-        <v>0.436343224323461</v>
+        <v>0.8592331121471786</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9168003976408832</v>
+        <v>0.9441806261584754</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3672508935459755</v>
+        <v>0.1189137486611262</v>
       </c>
       <c r="H21" t="n">
-        <v>1.624110720655267</v>
+        <v>1.350356198031591</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4715256127617893</v>
+        <v>0.2096844793068302</v>
       </c>
       <c r="J21" t="n">
-        <v>1.802305398615672</v>
+        <v>0.5225539194230107</v>
       </c>
       <c r="K21" t="n">
-        <v>1.136915505688731</v>
+        <v>0.3661191993649204</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8636542196163473</v>
+        <v>0.4562993632123913</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6060122882796812</v>
+        <v>0.3448387284820634</v>
       </c>
       <c r="N21" t="n">
-        <v>1.077534244459339</v>
+        <v>1.025105146972539</v>
       </c>
       <c r="O21" t="n">
-        <v>0.631811486010124</v>
+        <v>0.3595192270681207</v>
       </c>
       <c r="P21" t="n">
-        <v>84.00342006171668</v>
+        <v>86.25871369966595</v>
       </c>
       <c r="Q21" t="n">
-        <v>133.9773288813129</v>
+        <v>136.2326225192622</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9447710893661312</v>
+        <v>0.9817829344041732</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7567212185162744</v>
+        <v>0.79751121432807</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9794286163117228</v>
+        <v>0.9753770510454212</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4332445440190902</v>
+        <v>0.8549705492397748</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9161786003902833</v>
+        <v>0.9426381237700235</v>
       </c>
       <c r="G22" t="n">
-        <v>0.369315979714431</v>
+        <v>0.1218176015211679</v>
       </c>
       <c r="H22" t="n">
-        <v>1.62680633197746</v>
+        <v>1.354043442163321</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4786111251241053</v>
+        <v>0.2140952401932116</v>
       </c>
       <c r="J22" t="n">
-        <v>1.812213499577376</v>
+        <v>0.5383773775389551</v>
       </c>
       <c r="K22" t="n">
-        <v>1.14541231235074</v>
+        <v>0.3762364704952237</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8634959863315218</v>
+        <v>0.4584306273030142</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6077137317145558</v>
+        <v>0.3490237836038798</v>
       </c>
       <c r="N22" t="n">
-        <v>1.077970226777227</v>
+        <v>1.025718210252932</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6335853634144947</v>
+        <v>0.3638824486507312</v>
       </c>
       <c r="P22" t="n">
-        <v>83.99220537555935</v>
+        <v>86.21046084495821</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.9661141951556</v>
+        <v>136.1843696645544</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9444790220113761</v>
+        <v>0.9813768523906453</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7563490832382418</v>
+        <v>0.7970054660315438</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9791518695226983</v>
+        <v>0.9749003709466003</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4304059198557094</v>
+        <v>0.8510602690563455</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9156108939684917</v>
+        <v>0.9412155929217637</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3712690354605245</v>
+        <v>0.1245330738154644</v>
       </c>
       <c r="H23" t="n">
-        <v>1.629294802295189</v>
+        <v>1.35742538335095</v>
       </c>
       <c r="I23" t="n">
-        <v>0.485049879759022</v>
+        <v>0.218239948466808</v>
       </c>
       <c r="J23" t="n">
-        <v>1.821290065095747</v>
+        <v>0.5528930940335156</v>
       </c>
       <c r="K23" t="n">
-        <v>1.153169972427384</v>
+        <v>0.3855668484517273</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8633866726012284</v>
+        <v>0.4604460696806942</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6093185008355848</v>
+        <v>0.3528924394421966</v>
       </c>
       <c r="N23" t="n">
-        <v>1.07838255716041</v>
+        <v>1.026291502507324</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6352584508793359</v>
+        <v>0.3679158011773068</v>
       </c>
       <c r="P23" t="n">
-        <v>83.98165663242391</v>
+        <v>86.16636789044132</v>
       </c>
       <c r="Q23" t="n">
-        <v>133.9555654520201</v>
+        <v>136.1402767100375</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9442047160907874</v>
+        <v>0.9809990038494922</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7560065526781291</v>
+        <v>0.7965425403034163</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9789006458503371</v>
+        <v>0.9744552370119348</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4278103953636241</v>
+        <v>0.8474803439896477</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9150933747631858</v>
+        <v>0.9399075322810065</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3731033204145638</v>
+        <v>0.1270597487499875</v>
       </c>
       <c r="H24" t="n">
-        <v>1.631585305727871</v>
+        <v>1.360520969826515</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4908948168963878</v>
+        <v>0.2221103645098322</v>
       </c>
       <c r="J24" t="n">
-        <v>1.829589313869453</v>
+        <v>0.5661824684267289</v>
       </c>
       <c r="K24" t="n">
-        <v>1.160241828449777</v>
+        <v>0.3941464164682805</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8633179127160341</v>
+        <v>0.4623441224551831</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6108218401584572</v>
+        <v>0.3564544132844866</v>
       </c>
       <c r="N24" t="n">
-        <v>1.078769812577712</v>
+        <v>1.026824935741893</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6368257904695244</v>
+        <v>0.3716294156203654</v>
       </c>
       <c r="P24" t="n">
-        <v>83.97179979852967</v>
+        <v>86.1261956811161</v>
       </c>
       <c r="Q24" t="n">
-        <v>133.9457086181259</v>
+        <v>136.1001045007123</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9439484821567756</v>
+        <v>0.9806488947388248</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7556921081905454</v>
+        <v>0.7961196617746352</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9786727823601808</v>
+        <v>0.974041710472443</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4254407961570167</v>
+        <v>0.8442085587876773</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9146221661665964</v>
+        <v>0.9387076472142373</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3748167579111494</v>
+        <v>0.1294009299851257</v>
       </c>
       <c r="H25" t="n">
-        <v>1.633687997464227</v>
+        <v>1.363348760495651</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4961962590867105</v>
+        <v>0.2257059559218141</v>
       </c>
       <c r="J25" t="n">
-        <v>1.837166161388935</v>
+        <v>0.5783279680316313</v>
       </c>
       <c r="K25" t="n">
-        <v>1.166680853934105</v>
+        <v>0.4020164610378003</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8632754948724195</v>
+        <v>0.4641166970968069</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6122228008749342</v>
+        <v>0.3597234076135798</v>
       </c>
       <c r="N25" t="n">
-        <v>1.079131554602199</v>
+        <v>1.027319207427541</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6382863929840904</v>
+        <v>0.3750375778057993</v>
       </c>
       <c r="P25" t="n">
-        <v>83.96263603601629</v>
+        <v>86.08967942007821</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.9365448556125</v>
+        <v>136.0635882396745</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9437102332136187</v>
+        <v>0.9803255845409919</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7554040421286413</v>
+        <v>0.7957339976773256</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9784661520154649</v>
+        <v>0.973658841007297</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4232801641707095</v>
+        <v>0.841223560180646</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9141934558865232</v>
+        <v>0.9376091372934854</v>
       </c>
       <c r="G26" t="n">
-        <v>0.376409929691075</v>
+        <v>0.13156290676674</v>
       </c>
       <c r="H26" t="n">
-        <v>1.635614296546602</v>
+        <v>1.36592769809018</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5010036936894511</v>
+        <v>0.2290349856921425</v>
       </c>
       <c r="J26" t="n">
-        <v>1.844074831454453</v>
+        <v>0.5894088603165224</v>
       </c>
       <c r="K26" t="n">
-        <v>1.172539143529763</v>
+        <v>0.4092215861583715</v>
       </c>
       <c r="L26" t="n">
-        <v>0.863254463981844</v>
+        <v>0.4657635182421451</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6135225584206949</v>
+        <v>0.3627160139375432</v>
       </c>
       <c r="N26" t="n">
-        <v>1.079467906051362</v>
+        <v>1.027775645353894</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6396414838994431</v>
+        <v>0.3781575855765228</v>
       </c>
       <c r="P26" t="n">
-        <v>83.95415298186116</v>
+        <v>86.05654032659304</v>
       </c>
       <c r="Q26" t="n">
-        <v>133.9280618014574</v>
+        <v>136.0304491461893</v>
       </c>
     </row>
   </sheetData>
